--- a/BioSTEAM 2.x.x/biorefineries/TAL/TAL_glucose-MPSP_vs_capacity.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/TAL/TAL_glucose-MPSP_vs_capacity.xlsx
@@ -1,38 +1,205 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\BioSTEAM 2.x.x\biorefineries\TAL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581527A7-AA12-4D98-8A07-7564F998B99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TAL_MPSP_vs_cpcty" sheetId="1" r:id="rId1"/>
+    <sheet name="rudimentary_5-HH_costing" sheetId="2" r:id="rId2"/>
+    <sheet name="rudimentary_5-HH_MPSP_vs_cpcty" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
   <si>
-    <t>TAL MPSP</t>
+    <t>H2 price</t>
   </si>
   <si>
-    <t>Feedstock dry mass</t>
+    <t>$/kg</t>
   </si>
   <si>
-    <t>TAL capacity</t>
+    <t>EtOH price</t>
   </si>
   <si>
-    <t>Glucose and xylose to fermentation</t>
+    <t>H2 mol_req</t>
+  </si>
+  <si>
+    <t>EtOH mol_req</t>
+  </si>
+  <si>
+    <t>$/mol</t>
+  </si>
+  <si>
+    <t>feed TAL</t>
+  </si>
+  <si>
+    <t>TAL capacity (metric tonne /d)</t>
+  </si>
+  <si>
+    <t>Feedstock dry mass (metric tonne /d)</t>
+  </si>
+  <si>
+    <t>Glucose to fermentation (metric tonne /d)</t>
+  </si>
+  <si>
+    <t>TAL MPSP ($/kg-TAL)</t>
+  </si>
+  <si>
+    <t>metric tonne /d</t>
+  </si>
+  <si>
+    <t>Rxn yield</t>
+  </si>
+  <si>
+    <t>mol-5-HH/mol-TAL</t>
+  </si>
+  <si>
+    <t>mol/d</t>
+  </si>
+  <si>
+    <t>5-HH produced</t>
+  </si>
+  <si>
+    <t>TAL price</t>
+  </si>
+  <si>
+    <t>H2O produced</t>
+  </si>
+  <si>
+    <t>H2O mol_prod</t>
+  </si>
+  <si>
+    <t>mol/mol-5-HH</t>
+  </si>
+  <si>
+    <t>$/metric-tonne</t>
+  </si>
+  <si>
+    <t>EtOH consumed</t>
+  </si>
+  <si>
+    <t>H2 consumed</t>
+  </si>
+  <si>
+    <t>$/d</t>
+  </si>
+  <si>
+    <t>Overall heat efficiency</t>
+  </si>
+  <si>
+    <t>MJ/MJ</t>
+  </si>
+  <si>
+    <t>MJ/d</t>
+  </si>
+  <si>
+    <t>H2O evaporation enthalpy requirement</t>
+  </si>
+  <si>
+    <t>https://www.engineeringtoolbox.com/fuels-higher-calorific-values-d_169.html</t>
+  </si>
+  <si>
+    <t>MJ/kg</t>
+  </si>
+  <si>
+    <t>MJ/metric-tonne</t>
+  </si>
+  <si>
+    <t>Natural gas LHV</t>
+  </si>
+  <si>
+    <t>Natural gas price</t>
+  </si>
+  <si>
+    <t>Natural gas required</t>
+  </si>
+  <si>
+    <t>metric-tonne/d</t>
+  </si>
+  <si>
+    <t>Natural gas cost</t>
+  </si>
+  <si>
+    <t>H2 cost</t>
+  </si>
+  <si>
+    <t>EtOH cost</t>
+  </si>
+  <si>
+    <t>TAL cost</t>
+  </si>
+  <si>
+    <t>Total operating cost</t>
+  </si>
+  <si>
+    <t>Reactant costs</t>
+  </si>
+  <si>
+    <t>Minimum cost of evaporating the produced water from the product stream</t>
+  </si>
+  <si>
+    <t>Minimum cost of evaporating 5-HH from the product stream (to separate from TAL)</t>
+  </si>
+  <si>
+    <t>TAL unreacted</t>
+  </si>
+  <si>
+    <t>5-HH evaporation enthalpy requirement</t>
+  </si>
+  <si>
+    <t>5-HH enthalpy of vaporization</t>
+  </si>
+  <si>
+    <t>assumed to be same as that of water</t>
+  </si>
+  <si>
+    <t>5-HH heat capacity</t>
+  </si>
+  <si>
+    <t>MJ/(kg*K)</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>5-HH MPSP (rudimentary)</t>
+  </si>
+  <si>
+    <t>Reaction product stream (before further separation)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="174" formatCode="0.000E+00"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,13 +215,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -84,18 +290,1620 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="174" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TAL_MPSP_vs_cpcty!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Feedstock dry mass (metric tonne /d)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>TAL_MPSP_vs_cpcty!$D$2:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>33.838426991946847</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.303299187544049</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.768171377366727</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.233043567189242</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>103.6979157570122</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121.1627879468348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>138.62766013665751</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>156.09253232647981</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>173.55740451630231</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>191.0222767061253</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>208.487148895948</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>225.95202108577041</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>243.4168932755924</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>260.8817654654157</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>278.34663765523788</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>295.8115098450595</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>313.27638203488368</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>330.74125422470541</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>348.20612641452908</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>365.67099860435189</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>383.135870794173</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>400.60074298399689</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>418.06561517381931</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>435.53048736364178</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>452.99535955346602</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>470.46023174328678</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>487.92510393310982</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>505.3899761229323</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>522.85484831275346</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>540.31972050257457</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>557.78459269240079</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>575.2494648822227</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>592.71433707204619</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>610.17920926186753</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>627.64408145168932</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>645.10895364151406</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>662.57382583133574</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>680.03869802115798</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>697.50357021098193</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>714.96844240080202</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>732.43331459062676</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>749.89818678044992</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>767.36305897026784</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>784.82793116009123</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>802.29280334991779</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>819.7576755397406</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>837.22254772956137</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>854.68741991938509</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>872.15229210920722</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>889.6171642990289</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>907.0820364888524</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>924.54690867867646</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>942.011780868497</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>959.47665305831606</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>976.94152524813944</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>994.40639743796271</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1011.871269627786</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1029.336141817611</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1046.8010140074321</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1064.265886197257</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1081.7307583870761</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1099.195630576902</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1116.6605027667249</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1134.125374956549</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1151.5902471463669</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1169.055119336188</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1186.5199915260141</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1203.9848637158379</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1221.4497359056591</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1238.914608095474</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1256.379480285304</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1273.8443524751281</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1291.3092246649519</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1308.774096854768</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1326.2389690445921</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1343.703841234412</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1361.1687134242411</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1378.6335856140629</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1396.098457803884</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1413.5633299937119</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1431.0282021835301</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1448.4930743733521</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1465.957946563178</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1483.422818753</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1500.8876909428161</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1518.3525631326429</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1535.8174353224631</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1553.282307512284</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1570.7471797021151</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1588.2120518919371</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1605.6769240817609</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1623.14179627158</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1640.606668461402</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1658.0715406512211</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1675.5364128410499</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1693.001285030866</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1710.466157220693</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1727.931029410518</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1745.395901600335</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1762.86077379016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>TAL_MPSP_vs_cpcty!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>3.793502503425775</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3255693243522861</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0816820692049798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9317967323720291</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.82906217886147</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.754266787178433</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6958694512775558</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6494593828202251</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6129579136094261</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.581508567343711</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5534057198413218</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5311629058253931</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5098964159636128</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4931330202493518</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4774383816776648</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.4618594877311599</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4498094672715989</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4373218354113901</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.427590107915226</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.4171402908843569</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.4087117750171401</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.3997264221482371</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.3924355877254171</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3843086846753878</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.378175456216308</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.371087866902347</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.3658197078067089</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.359613088874819</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.354908268346358</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.3494608001022148</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.3445226001436219</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.339928367049565</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.3355860185633688</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.331453093497402</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.3275442224294229</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.3238213280909932</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.3207183622577432</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.317306970657889</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.3140292765477439</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.3108795651748029</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.307852860297293</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.3051216406364561</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.3023266237249929</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.299623746694222</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.2970195509317382</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.2945033476553371</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.2920809949953962</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.2897310593871771</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.287457674771312</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.2853878212564518</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.2832550723096579</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.2811904001695629</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.2791958208294312</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.2772496628920642</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.2753600662435969</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.273524249346905</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.2717460873810511</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.270010471645358</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.268321688747307</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.2666777035799899</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.2650770172682511</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.263523314324519</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.2620203408382671</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.2605371390248532</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.259090211832897</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.257678128338251</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.2562995345906018</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.254955481976368</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.2536400658560112</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.2523544925922212</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.2510976691977489</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.249855504300784</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.24865514381047</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.2474859275955259</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.2465828951675682</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.2454275348845121</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.2443019626421279</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.2432073991313559</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.242147809519202</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.2411042575160312</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.2400829315643591</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.239082413836865</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.2381016170151731</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.2371396669117671</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.236201940637593</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.2352773515672459</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.234367796948157</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.2334746120961828</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2326084783232778</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2317465087890711</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.230899513670622</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.230067072798561</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.2292505126848061</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.228445975954398</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.2276548339914171</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.2268818806026238</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.2261164175630821</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.2253633180315409</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.2246163774601291</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.2238870891739051</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A73B-4672-8DD0-AF515DBBFC17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1377322111"/>
+        <c:axId val="1377321279"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1377322111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TAL capacity (metric tonne/d)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1377321279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1377321279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TAL MPSP ($/kg)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1377322111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1767BB40-75C3-4C60-AE40-2D455DF4410B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -141,7 +1949,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -173,9 +1981,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -207,6 +2033,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -382,28 +2226,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>240</v>
       </c>
@@ -411,75 +2261,79 @@
         <v>3.793502503425775</v>
       </c>
       <c r="C2">
-        <v>235.9322033898305</v>
+        <v>235.93220338983051</v>
       </c>
       <c r="D2">
-        <v>33.83842699194685</v>
+        <v>33.838426991946847</v>
       </c>
       <c r="E2">
-        <v>227.328149487468</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>227.32814948746801</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>363.8700996899075</v>
+        <v>363.87009968990748</v>
       </c>
       <c r="B3">
-        <v>3.325569324352286</v>
+        <v>3.3255693243522861</v>
       </c>
       <c r="C3">
-        <v>357.7028098646549</v>
+        <v>357.70280986465491</v>
       </c>
       <c r="D3">
-        <v>51.30329918754405</v>
+        <v>51.303299187544049</v>
       </c>
       <c r="E3">
-        <v>344.6579850680299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>344.65798506802992</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>487.7401993798151</v>
+        <v>487.74019937981512</v>
       </c>
       <c r="B4">
-        <v>3.08168206920498</v>
+        <v>3.0816820692049798</v>
       </c>
       <c r="C4">
-        <v>479.4734163394793</v>
+        <v>479.47341633947929</v>
       </c>
       <c r="D4">
-        <v>68.76817137736673</v>
+        <v>68.768171377366727</v>
       </c>
       <c r="E4">
-        <v>461.9878206485918</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>461.98782064859182</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>611.6102990697226</v>
       </c>
       <c r="B5">
-        <v>2.931796732372029</v>
+        <v>2.9317967323720291</v>
       </c>
       <c r="C5">
-        <v>601.2440228143038</v>
+        <v>601.24402281430378</v>
       </c>
       <c r="D5">
-        <v>86.23304356718924</v>
+        <v>86.233043567189242</v>
       </c>
       <c r="E5">
-        <v>579.3176562291538</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>579.31765622915384</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>735.4803987596302</v>
+        <v>735.48039875963025</v>
       </c>
       <c r="B6">
         <v>2.82906217886147</v>
       </c>
       <c r="C6">
-        <v>723.0146292891279</v>
+        <v>723.01462928912792</v>
       </c>
       <c r="D6">
         <v>103.6979157570122</v>
@@ -487,84 +2341,89 @@
       <c r="E6">
         <v>696.6474918097158</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>859.3504984495378</v>
+        <v>859.35049844953778</v>
       </c>
       <c r="B7">
         <v>2.754266787178433</v>
       </c>
       <c r="C7">
-        <v>844.7852357639524</v>
+        <v>844.78523576395241</v>
       </c>
       <c r="D7">
         <v>121.1627879468348</v>
       </c>
       <c r="E7">
-        <v>813.9773273902778</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>813.97732739027776</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>983.2205981394454</v>
+        <v>983.22059813944543</v>
       </c>
       <c r="B8">
-        <v>2.695869451277556</v>
+        <v>2.6958694512775558</v>
       </c>
       <c r="C8">
         <v>966.5558422387769</v>
       </c>
       <c r="D8">
-        <v>138.6276601366575</v>
+        <v>138.62766013665751</v>
       </c>
       <c r="E8">
-        <v>931.30716297084</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>931.30716297083995</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>1107.090697829353</v>
+        <v>1107.0906978293531</v>
       </c>
       <c r="B9">
-        <v>2.649459382820225</v>
+        <v>2.6494593828202251</v>
       </c>
       <c r="C9">
-        <v>1088.326448713601</v>
+        <v>1088.3264487136009</v>
       </c>
       <c r="D9">
-        <v>156.0925323264798</v>
+        <v>156.09253232647981</v>
       </c>
       <c r="E9">
         <v>1048.636998551402</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1230.96079751926</v>
       </c>
       <c r="B10">
-        <v>2.612957913609426</v>
+        <v>2.6129579136094261</v>
       </c>
       <c r="C10">
-        <v>1210.097055188426</v>
+        <v>1210.0970551884261</v>
       </c>
       <c r="D10">
-        <v>173.5574045163023</v>
+        <v>173.55740451630231</v>
       </c>
       <c r="E10">
-        <v>1165.966834131964</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>1165.9668341319641</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>1354.830897209168</v>
+        <v>1354.8308972091679</v>
       </c>
       <c r="B11">
         <v>2.581508567343711</v>
       </c>
       <c r="C11">
-        <v>1331.86766166325</v>
+        <v>1331.8676616632499</v>
       </c>
       <c r="D11">
         <v>191.0222767061253</v>
@@ -572,13 +2431,14 @@
       <c r="E11">
         <v>1283.296669712526</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1478.700996899076</v>
       </c>
       <c r="B12">
-        <v>2.553405719841322</v>
+        <v>2.5534057198413218</v>
       </c>
       <c r="C12">
         <v>1453.638268138074</v>
@@ -587,35 +2447,37 @@
         <v>208.487148895948</v>
       </c>
       <c r="E12">
-        <v>1400.626505293087</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>1400.6265052930869</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1602.571096588983</v>
       </c>
       <c r="B13">
-        <v>2.531162905825393</v>
+        <v>2.5311629058253931</v>
       </c>
       <c r="C13">
-        <v>1575.408874612899</v>
+        <v>1575.4088746128989</v>
       </c>
       <c r="D13">
-        <v>225.9520210857704</v>
+        <v>225.95202108577041</v>
       </c>
       <c r="E13">
         <v>1517.956340873649</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>1726.441196278891</v>
+        <v>1726.4411962788911</v>
       </c>
       <c r="B14">
-        <v>2.509896415963613</v>
+        <v>2.5098964159636128</v>
       </c>
       <c r="C14">
-        <v>1697.179481087723</v>
+        <v>1697.1794810877229</v>
       </c>
       <c r="D14">
         <v>243.4168932755924</v>
@@ -623,16 +2485,17 @@
       <c r="E14">
         <v>1635.286176454211</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1850.311295968799</v>
       </c>
       <c r="B15">
-        <v>2.493133020249352</v>
+        <v>2.4931330202493518</v>
       </c>
       <c r="C15">
-        <v>1818.950087562548</v>
+        <v>1818.9500875625481</v>
       </c>
       <c r="D15">
         <v>260.8817654654157</v>
@@ -640,33 +2503,35 @@
       <c r="E15">
         <v>1752.616012034774</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>1974.181395658706</v>
+        <v>1974.1813956587059</v>
       </c>
       <c r="B16">
-        <v>2.477438381677665</v>
+        <v>2.4774383816776648</v>
       </c>
       <c r="C16">
         <v>1940.720694037371</v>
       </c>
       <c r="D16">
-        <v>278.3466376552379</v>
+        <v>278.34663765523788</v>
       </c>
       <c r="E16">
         <v>1869.945847615335</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>2098.051495348613</v>
+        <v>2098.0514953486131</v>
       </c>
       <c r="B17">
-        <v>2.46185948773116</v>
+        <v>2.4618594877311599</v>
       </c>
       <c r="C17">
-        <v>2062.491300512197</v>
+        <v>2062.4913005121971</v>
       </c>
       <c r="D17">
         <v>295.8115098450595</v>
@@ -674,146 +2539,155 @@
       <c r="E17">
         <v>1987.275683195897</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2221.921595038521</v>
       </c>
       <c r="B18">
-        <v>2.449809467271599</v>
+        <v>2.4498094672715989</v>
       </c>
       <c r="C18">
-        <v>2184.261906987021</v>
+        <v>2184.2619069870211</v>
       </c>
       <c r="D18">
-        <v>313.2763820348837</v>
+        <v>313.27638203488368</v>
       </c>
       <c r="E18">
-        <v>2104.605518776459</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>2104.6055187764591</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2345.791694728428</v>
       </c>
       <c r="B19">
-        <v>2.43732183541139</v>
+        <v>2.4373218354113901</v>
       </c>
       <c r="C19">
-        <v>2306.032513461846</v>
+        <v>2306.0325134618461</v>
       </c>
       <c r="D19">
-        <v>330.7412542247054</v>
+        <v>330.74125422470541</v>
       </c>
       <c r="E19">
         <v>2221.935354357021</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>2469.661794418336</v>
+        <v>2469.6617944183358</v>
       </c>
       <c r="B20">
         <v>2.427590107915226</v>
       </c>
       <c r="C20">
-        <v>2427.803119936669</v>
+        <v>2427.8031199366692</v>
       </c>
       <c r="D20">
-        <v>348.2061264145291</v>
+        <v>348.20612641452908</v>
       </c>
       <c r="E20">
-        <v>2339.265189937583</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>2339.2651899375828</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>2593.531894108243</v>
+        <v>2593.5318941082428</v>
       </c>
       <c r="B21">
-        <v>2.417140290884357</v>
+        <v>2.4171402908843569</v>
       </c>
       <c r="C21">
-        <v>2549.573726411494</v>
+        <v>2549.5737264114941</v>
       </c>
       <c r="D21">
-        <v>365.6709986043519</v>
+        <v>365.67099860435189</v>
       </c>
       <c r="E21">
-        <v>2456.595025518145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>2456.5950255181451</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>2717.401993798151</v>
+        <v>2717.4019937981511</v>
       </c>
       <c r="B22">
-        <v>2.40871177501714</v>
+        <v>2.4087117750171401</v>
       </c>
       <c r="C22">
-        <v>2671.344332886318</v>
+        <v>2671.3443328863182</v>
       </c>
       <c r="D22">
         <v>383.135870794173</v>
       </c>
       <c r="E22">
-        <v>2573.924861098706</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>2573.9248610987061</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2841.272093488059</v>
       </c>
       <c r="B23">
-        <v>2.399726422148237</v>
+        <v>2.3997264221482371</v>
       </c>
       <c r="C23">
-        <v>2793.114939361142</v>
+        <v>2793.1149393611422</v>
       </c>
       <c r="D23">
-        <v>400.6007429839969</v>
+        <v>400.60074298399689</v>
       </c>
       <c r="E23">
-        <v>2691.254696679268</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>2691.2546966792679</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2965.142193177966</v>
       </c>
       <c r="B24">
-        <v>2.392435587725417</v>
+        <v>2.3924355877254171</v>
       </c>
       <c r="C24">
-        <v>2914.885545835967</v>
+        <v>2914.8855458359672</v>
       </c>
       <c r="D24">
-        <v>418.0656151738193</v>
+        <v>418.06561517381931</v>
       </c>
       <c r="E24">
-        <v>2808.584532259831</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>2808.5845322598311</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>3089.012292867874</v>
+        <v>3089.0122928678738</v>
       </c>
       <c r="B25">
-        <v>2.384308684675388</v>
+        <v>2.3843086846753878</v>
       </c>
       <c r="C25">
-        <v>3036.656152310792</v>
+        <v>3036.6561523107921</v>
       </c>
       <c r="D25">
-        <v>435.5304873636418</v>
+        <v>435.53048736364178</v>
       </c>
       <c r="E25">
         <v>2925.914367840393</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>3212.882392557782</v>
+        <v>3212.8823925577822</v>
       </c>
       <c r="B26">
         <v>2.378175456216308</v>
@@ -822,47 +2696,50 @@
         <v>3158.426758785617</v>
       </c>
       <c r="D26">
-        <v>452.995359553466</v>
+        <v>452.99535955346602</v>
       </c>
       <c r="E26">
-        <v>3043.244203420955</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>3043.2442034209548</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>3336.752492247689</v>
+        <v>3336.7524922476891</v>
       </c>
       <c r="B27">
         <v>2.371087866902347</v>
       </c>
       <c r="C27">
-        <v>3280.197365260439</v>
+        <v>3280.1973652604388</v>
       </c>
       <c r="D27">
-        <v>470.4602317432868</v>
+        <v>470.46023174328678</v>
       </c>
       <c r="E27">
-        <v>3160.574039001515</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>3160.5740390015148</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>3460.622591937597</v>
       </c>
       <c r="B28">
-        <v>2.365819707806709</v>
+        <v>2.3658197078067089</v>
       </c>
       <c r="C28">
-        <v>3401.967971735265</v>
+        <v>3401.9679717352651</v>
       </c>
       <c r="D28">
-        <v>487.9251039331098</v>
+        <v>487.92510393310982</v>
       </c>
       <c r="E28">
         <v>3277.903874582079</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>3584.492691627504</v>
       </c>
@@ -870,67 +2747,71 @@
         <v>2.359613088874819</v>
       </c>
       <c r="C29">
-        <v>3523.738578210088</v>
+        <v>3523.7385782100878</v>
       </c>
       <c r="D29">
         <v>505.3899761229323</v>
       </c>
       <c r="E29">
-        <v>3395.23371016264</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>3395.2337101626399</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>3708.362791317412</v>
+        <v>3708.3627913174118</v>
       </c>
       <c r="B30">
         <v>2.354908268346358</v>
       </c>
       <c r="C30">
-        <v>3645.509184684913</v>
+        <v>3645.5091846849132</v>
       </c>
       <c r="D30">
-        <v>522.8548483127535</v>
+        <v>522.85484831275346</v>
       </c>
       <c r="E30">
-        <v>3512.563545743202</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>3512.5635457432022</v>
+      </c>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>3832.232891007319</v>
+        <v>3832.2328910073188</v>
       </c>
       <c r="B31">
-        <v>2.349460800102215</v>
+        <v>2.3494608001022148</v>
       </c>
       <c r="C31">
-        <v>3767.279791159737</v>
+        <v>3767.2797911597372</v>
       </c>
       <c r="D31">
-        <v>540.3197205025746</v>
+        <v>540.31972050257457</v>
       </c>
       <c r="E31">
-        <v>3629.893381323764</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>3629.8933813237641</v>
+      </c>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>3956.102990697227</v>
+        <v>3956.1029906972271</v>
       </c>
       <c r="B32">
-        <v>2.344522600143622</v>
+        <v>2.3445226001436219</v>
       </c>
       <c r="C32">
-        <v>3889.050397634563</v>
+        <v>3889.0503976345631</v>
       </c>
       <c r="D32">
-        <v>557.7845926924008</v>
+        <v>557.78459269240079</v>
       </c>
       <c r="E32">
-        <v>3747.223216904326</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>3747.2232169043259</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4079.973090387135</v>
       </c>
@@ -938,103 +2819,109 @@
         <v>2.339928367049565</v>
       </c>
       <c r="C33">
-        <v>4010.821004109386</v>
+        <v>4010.8210041093862</v>
       </c>
       <c r="D33">
         <v>575.2494648822227</v>
       </c>
       <c r="E33">
-        <v>3864.553052484888</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>3864.5530524848882</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>4203.843190077042</v>
       </c>
       <c r="B34">
-        <v>2.335586018563369</v>
+        <v>2.3355860185633688</v>
       </c>
       <c r="C34">
-        <v>4132.59161058421</v>
+        <v>4132.5916105842098</v>
       </c>
       <c r="D34">
-        <v>592.7143370720462</v>
+        <v>592.71433707204619</v>
       </c>
       <c r="E34">
-        <v>3981.88288806545</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>3981.8828880654501</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>4327.71328976695</v>
+        <v>4327.7132897669499</v>
       </c>
       <c r="B35">
         <v>2.331453093497402</v>
       </c>
       <c r="C35">
-        <v>4254.362217059035</v>
+        <v>4254.3622170590352</v>
       </c>
       <c r="D35">
-        <v>610.1792092618675</v>
+        <v>610.17920926186753</v>
       </c>
       <c r="E35">
-        <v>4099.212723646012</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>4099.2127236460119</v>
+      </c>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>4451.583389456857</v>
+        <v>4451.5833894568568</v>
       </c>
       <c r="B36">
-        <v>2.327544222429423</v>
+        <v>2.3275442224294229</v>
       </c>
       <c r="C36">
-        <v>4376.132823533859</v>
+        <v>4376.1328235338588</v>
       </c>
       <c r="D36">
-        <v>627.6440814516893</v>
+        <v>627.64408145168932</v>
       </c>
       <c r="E36">
-        <v>4216.542559226575</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>4216.5425592265747</v>
+      </c>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>4575.453489146766</v>
+        <v>4575.4534891467656</v>
       </c>
       <c r="B37">
-        <v>2.323821328090993</v>
+        <v>2.3238213280909932</v>
       </c>
       <c r="C37">
-        <v>4497.903430008685</v>
+        <v>4497.9034300086851</v>
       </c>
       <c r="D37">
-        <v>645.1089536415141</v>
+        <v>645.10895364151406</v>
       </c>
       <c r="E37">
-        <v>4333.872394807137</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>4333.8723948071374</v>
+      </c>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>4699.323588836673</v>
+        <v>4699.3235888366726</v>
       </c>
       <c r="B38">
-        <v>2.320718362257743</v>
+        <v>2.3207183622577432</v>
       </c>
       <c r="C38">
-        <v>4619.674036483509</v>
+        <v>4619.6740364835086</v>
       </c>
       <c r="D38">
-        <v>662.5738258313357</v>
+        <v>662.57382583133574</v>
       </c>
       <c r="E38">
-        <v>4451.202230387699</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>4451.2022303876993</v>
+      </c>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>4823.19368852658</v>
+        <v>4823.1936885265804</v>
       </c>
       <c r="B39">
         <v>2.317306970657889</v>
@@ -1043,98 +2930,104 @@
         <v>4741.444642958334</v>
       </c>
       <c r="D39">
-        <v>680.038698021158</v>
+        <v>680.03869802115798</v>
       </c>
       <c r="E39">
-        <v>4568.53206596826</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>4568.5320659682602</v>
+      </c>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>4947.063788216487</v>
+        <v>4947.0637882164874</v>
       </c>
       <c r="B40">
-        <v>2.314029276547744</v>
+        <v>2.3140292765477439</v>
       </c>
       <c r="C40">
-        <v>4863.215249433157</v>
+        <v>4863.2152494331567</v>
       </c>
       <c r="D40">
-        <v>697.5035702109819</v>
+        <v>697.50357021098193</v>
       </c>
       <c r="E40">
-        <v>4685.861901548821</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>4685.8619015488212</v>
+      </c>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>5070.933887906395</v>
+        <v>5070.9338879063953</v>
       </c>
       <c r="B41">
-        <v>2.310879565174803</v>
+        <v>2.3108795651748029</v>
       </c>
       <c r="C41">
-        <v>4984.985855907981</v>
+        <v>4984.9858559079812</v>
       </c>
       <c r="D41">
-        <v>714.968442400802</v>
+        <v>714.96844240080202</v>
       </c>
       <c r="E41">
-        <v>4803.191737129385</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>4803.1917371293848</v>
+      </c>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>5194.803987596302</v>
+        <v>5194.8039875963022</v>
       </c>
       <c r="B42">
         <v>2.307852860297293</v>
       </c>
       <c r="C42">
-        <v>5106.756462382807</v>
+        <v>5106.7564623828066</v>
       </c>
       <c r="D42">
-        <v>732.4333145906268</v>
+        <v>732.43331459062676</v>
       </c>
       <c r="E42">
-        <v>4920.521572709946</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>4920.5215727099458</v>
+      </c>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>5318.67408728621</v>
+        <v>5318.6740872862101</v>
       </c>
       <c r="B43">
-        <v>2.305121640636456</v>
+        <v>2.3051216406364561</v>
       </c>
       <c r="C43">
-        <v>5228.527068857631</v>
+        <v>5228.5270688576311</v>
       </c>
       <c r="D43">
-        <v>749.8981867804499</v>
+        <v>749.89818678044992</v>
       </c>
       <c r="E43">
-        <v>5037.851408290509</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>5037.8514082905094</v>
+      </c>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>5442.544186976118</v>
       </c>
       <c r="B44">
-        <v>2.302326623724993</v>
+        <v>2.3023266237249929</v>
       </c>
       <c r="C44">
-        <v>5350.297675332454</v>
+        <v>5350.2976753324538</v>
       </c>
       <c r="D44">
-        <v>767.3630589702678</v>
+        <v>767.36305897026784</v>
       </c>
       <c r="E44">
-        <v>5155.181243871069</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>5155.1812438710685</v>
+      </c>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>5566.414286666025</v>
       </c>
@@ -1142,41 +3035,43 @@
         <v>2.299623746694222</v>
       </c>
       <c r="C45">
-        <v>5472.068281807278</v>
+        <v>5472.0682818072783</v>
       </c>
       <c r="D45">
-        <v>784.8279311600912</v>
+        <v>784.82793116009123</v>
       </c>
       <c r="E45">
-        <v>5272.511079451631</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>5272.5110794516313</v>
+      </c>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>5690.284386355933</v>
+        <v>5690.2843863559328</v>
       </c>
       <c r="B46">
-        <v>2.297019550931738</v>
+        <v>2.2970195509317382</v>
       </c>
       <c r="C46">
-        <v>5593.838888282104</v>
+        <v>5593.8388882821037</v>
       </c>
       <c r="D46">
-        <v>802.2928033499178</v>
+        <v>802.29280334991779</v>
       </c>
       <c r="E46">
         <v>5389.840915032195</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>5814.15448604584</v>
+        <v>5814.1544860458398</v>
       </c>
       <c r="B47">
-        <v>2.294503347655337</v>
+        <v>2.2945033476553371</v>
       </c>
       <c r="C47">
-        <v>5715.609494756927</v>
+        <v>5715.6094947569272</v>
       </c>
       <c r="D47">
         <v>819.7576755397406</v>
@@ -1184,203 +3079,215 @@
       <c r="E47">
         <v>5507.170750612755</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>5938.024585735748</v>
+        <v>5938.0245857357477</v>
       </c>
       <c r="B48">
-        <v>2.292080994995396</v>
+        <v>2.2920809949953962</v>
       </c>
       <c r="C48">
-        <v>5837.380101231753</v>
+        <v>5837.3801012317526</v>
       </c>
       <c r="D48">
-        <v>837.2225477295614</v>
+        <v>837.22254772956137</v>
       </c>
       <c r="E48">
-        <v>5624.500586193319</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>5624.5005861933187</v>
+      </c>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>6061.894685425656</v>
+        <v>6061.8946854256556</v>
       </c>
       <c r="B49">
-        <v>2.289731059387177</v>
+        <v>2.2897310593871771</v>
       </c>
       <c r="C49">
-        <v>5959.150707706576</v>
+        <v>5959.1507077065762</v>
       </c>
       <c r="D49">
-        <v>854.6874199193851</v>
+        <v>854.68741991938509</v>
       </c>
       <c r="E49">
-        <v>5741.83042177388</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>5741.8304217738796</v>
+      </c>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>6185.764785115563</v>
+        <v>6185.7647851155634</v>
       </c>
       <c r="B50">
         <v>2.287457674771312</v>
       </c>
       <c r="C50">
-        <v>6080.921314181402</v>
+        <v>6080.9213141814016</v>
       </c>
       <c r="D50">
-        <v>872.1522921092072</v>
+        <v>872.15229210920722</v>
       </c>
       <c r="E50">
-        <v>5859.160257354441</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>5859.1602573544405</v>
+      </c>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>6309.63488480547</v>
+        <v>6309.6348848054704</v>
       </c>
       <c r="B51">
-        <v>2.285387821256452</v>
+        <v>2.2853878212564518</v>
       </c>
       <c r="C51">
-        <v>6202.691920656224</v>
+        <v>6202.6919206562243</v>
       </c>
       <c r="D51">
         <v>889.6171642990289</v>
       </c>
       <c r="E51">
-        <v>5976.490092935003</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>5976.4900929350033</v>
+      </c>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>6433.504984495377</v>
+        <v>6433.5049844953774</v>
       </c>
       <c r="B52">
-        <v>2.283255072309658</v>
+        <v>2.2832550723096579</v>
       </c>
       <c r="C52">
-        <v>6324.462527131048</v>
+        <v>6324.4625271310479</v>
       </c>
       <c r="D52">
         <v>907.0820364888524</v>
       </c>
       <c r="E52">
-        <v>6093.819928515564</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>6093.8199285155642</v>
+      </c>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>6557.375084185285</v>
+        <v>6557.3750841852852</v>
       </c>
       <c r="B53">
-        <v>2.281190400169563</v>
+        <v>2.2811904001695629</v>
       </c>
       <c r="C53">
-        <v>6446.233133605875</v>
+        <v>6446.2331336058751</v>
       </c>
       <c r="D53">
-        <v>924.5469086786765</v>
+        <v>924.54690867867646</v>
       </c>
       <c r="E53">
-        <v>6211.149764096128</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>6211.1497640961279</v>
+      </c>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>6681.245183875194</v>
       </c>
       <c r="B54">
-        <v>2.279195820829431</v>
+        <v>2.2791958208294312</v>
       </c>
       <c r="C54">
-        <v>6568.003740080699</v>
+        <v>6568.0037400806987</v>
       </c>
       <c r="D54">
         <v>942.011780868497</v>
       </c>
       <c r="E54">
-        <v>6328.479599676688</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>6328.4795996766879</v>
+      </c>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>6805.1152835651</v>
+        <v>6805.1152835651001</v>
       </c>
       <c r="B55">
-        <v>2.277249662892064</v>
+        <v>2.2772496628920642</v>
       </c>
       <c r="C55">
-        <v>6689.77434655552</v>
+        <v>6689.7743465555204</v>
       </c>
       <c r="D55">
-        <v>959.4766530583161</v>
+        <v>959.47665305831606</v>
       </c>
       <c r="E55">
-        <v>6445.809435257249</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>6445.8094352572489</v>
+      </c>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>6928.985383255008</v>
+        <v>6928.9853832550079</v>
       </c>
       <c r="B56">
-        <v>2.275360066243597</v>
+        <v>2.2753600662435969</v>
       </c>
       <c r="C56">
-        <v>6811.544953030346</v>
+        <v>6811.5449530303458</v>
       </c>
       <c r="D56">
-        <v>976.9415252481394</v>
+        <v>976.94152524813944</v>
       </c>
       <c r="E56">
-        <v>6563.139270837813</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>6563.1392708378125</v>
+      </c>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>7052.855482944916</v>
+        <v>7052.8554829449158</v>
       </c>
       <c r="B57">
         <v>2.273524249346905</v>
       </c>
       <c r="C57">
-        <v>6933.315559505171</v>
+        <v>6933.3155595051712</v>
       </c>
       <c r="D57">
-        <v>994.4063974379627</v>
+        <v>994.40639743796271</v>
       </c>
       <c r="E57">
-        <v>6680.469106418375</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>6680.4691064183753</v>
+      </c>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>7176.725582634824</v>
+        <v>7176.7255826348237</v>
       </c>
       <c r="B58">
-        <v>2.271746087381051</v>
+        <v>2.2717460873810511</v>
       </c>
       <c r="C58">
-        <v>7055.086165979995</v>
+        <v>7055.0861659799948</v>
       </c>
       <c r="D58">
         <v>1011.871269627786</v>
       </c>
       <c r="E58">
-        <v>6797.798941998936</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>6797.7989419989362</v>
+      </c>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>7300.595682324732</v>
+        <v>7300.5956823247316</v>
       </c>
       <c r="B59">
         <v>2.270010471645358</v>
       </c>
       <c r="C59">
-        <v>7176.856772454821</v>
+        <v>7176.8567724548211</v>
       </c>
       <c r="D59">
         <v>1029.336141817611</v>
@@ -1388,110 +3295,117 @@
       <c r="E59">
         <v>6915.128777579499</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>7424.465782014639</v>
+        <v>7424.4657820146394</v>
       </c>
       <c r="B60">
         <v>2.268321688747307</v>
       </c>
       <c r="C60">
-        <v>7298.627378929644</v>
+        <v>7298.6273789296438</v>
       </c>
       <c r="D60">
-        <v>1046.801014007432</v>
+        <v>1046.8010140074321</v>
       </c>
       <c r="E60">
         <v>7032.458613160059</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>7548.335881704546</v>
+        <v>7548.3358817045464</v>
       </c>
       <c r="B61">
-        <v>2.26667770357999</v>
+        <v>2.2666777035799899</v>
       </c>
       <c r="C61">
-        <v>7420.397985404469</v>
+        <v>7420.3979854044692</v>
       </c>
       <c r="D61">
         <v>1064.265886197257</v>
       </c>
       <c r="E61">
-        <v>7149.788448740624</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>7149.7884487406236</v>
+      </c>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>7672.205981394453</v>
+        <v>7672.2059813944534</v>
       </c>
       <c r="B62">
-        <v>2.265077017268251</v>
+        <v>2.2650770172682511</v>
       </c>
       <c r="C62">
-        <v>7542.168591879294</v>
+        <v>7542.1685918792937</v>
       </c>
       <c r="D62">
-        <v>1081.730758387076</v>
+        <v>1081.7307583870761</v>
       </c>
       <c r="E62">
-        <v>7267.118284321185</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>7267.1182843211845</v>
+      </c>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>7796.076081084361</v>
+        <v>7796.0760810843612</v>
       </c>
       <c r="B63">
         <v>2.263523314324519</v>
       </c>
       <c r="C63">
-        <v>7663.939198354117</v>
+        <v>7663.9391983541173</v>
       </c>
       <c r="D63">
         <v>1099.195630576902</v>
       </c>
       <c r="E63">
-        <v>7384.448119901746</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>7384.4481199017464</v>
+      </c>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>7919.946180774269</v>
+        <v>7919.9461807742691</v>
       </c>
       <c r="B64">
-        <v>2.262020340838267</v>
+        <v>2.2620203408382671</v>
       </c>
       <c r="C64">
-        <v>7785.709804828942</v>
+        <v>7785.7098048289417</v>
       </c>
       <c r="D64">
-        <v>1116.660502766725</v>
+        <v>1116.6605027667249</v>
       </c>
       <c r="E64">
-        <v>7501.777955482308</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>7501.7779554823082</v>
+      </c>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>8043.816280464177</v>
       </c>
       <c r="B65">
-        <v>2.260537139024853</v>
+        <v>2.2605371390248532</v>
       </c>
       <c r="C65">
-        <v>7907.480411303767</v>
+        <v>7907.4804113037671</v>
       </c>
       <c r="D65">
         <v>1134.125374956549</v>
       </c>
       <c r="E65">
-        <v>7619.10779106287</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>7619.1077910628701</v>
+      </c>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>8167.686380154084</v>
       </c>
@@ -1499,16 +3413,17 @@
         <v>2.259090211832897</v>
       </c>
       <c r="C66">
-        <v>8029.251017778591</v>
+        <v>8029.2510177785907</v>
       </c>
       <c r="D66">
-        <v>1151.590247146367</v>
+        <v>1151.5902471463669</v>
       </c>
       <c r="E66">
-        <v>7736.43762664343</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>7736.4376266434301</v>
+      </c>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>8291.55647984399</v>
       </c>
@@ -1516,75 +3431,79 @@
         <v>2.257678128338251</v>
       </c>
       <c r="C67">
-        <v>8151.021624253414</v>
+        <v>8151.0216242534143</v>
       </c>
       <c r="D67">
         <v>1169.055119336188</v>
       </c>
       <c r="E67">
-        <v>7853.767462223994</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>7853.7674622239938</v>
+      </c>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>8415.4265795339</v>
+        <v>8415.4265795338997</v>
       </c>
       <c r="B68">
-        <v>2.256299534590602</v>
+        <v>2.2562995345906018</v>
       </c>
       <c r="C68">
-        <v>8272.792230728239</v>
+        <v>8272.7922307282388</v>
       </c>
       <c r="D68">
-        <v>1186.519991526014</v>
+        <v>1186.5199915260141</v>
       </c>
       <c r="E68">
-        <v>7971.097297804555</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>7971.0972978045547</v>
+      </c>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>8539.296679223806</v>
+        <v>8539.2966792238058</v>
       </c>
       <c r="B69">
         <v>2.254955481976368</v>
       </c>
       <c r="C69">
-        <v>8394.562837203062</v>
+        <v>8394.5628372030624</v>
       </c>
       <c r="D69">
-        <v>1203.984863715838</v>
+        <v>1203.9848637158379</v>
       </c>
       <c r="E69">
-        <v>8088.427133385119</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>8088.4271333851193</v>
+      </c>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>8663.166778913714</v>
+        <v>8663.1667789137136</v>
       </c>
       <c r="B70">
-        <v>2.253640065856011</v>
+        <v>2.2536400658560112</v>
       </c>
       <c r="C70">
-        <v>8516.333443677891</v>
+        <v>8516.3334436778914</v>
       </c>
       <c r="D70">
-        <v>1221.449735905659</v>
+        <v>1221.4497359056591</v>
       </c>
       <c r="E70">
-        <v>8205.756968965681</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>8205.7569689656812</v>
+      </c>
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>8787.036878603622</v>
+        <v>8787.0368786036215</v>
       </c>
       <c r="B71">
-        <v>2.252354492592221</v>
+        <v>2.2523544925922212</v>
       </c>
       <c r="C71">
-        <v>8638.104050152711</v>
+        <v>8638.1040501527114</v>
       </c>
       <c r="D71">
         <v>1238.914608095474</v>
@@ -1592,220 +3511,233 @@
       <c r="E71">
         <v>8323.086804546243</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>8910.906978293531</v>
+        <v>8910.9069782935312</v>
       </c>
       <c r="B72">
-        <v>2.251097669197749</v>
+        <v>2.2510976691977489</v>
       </c>
       <c r="C72">
-        <v>8759.874656627539</v>
+        <v>8759.8746566275386</v>
       </c>
       <c r="D72">
         <v>1256.379480285304</v>
       </c>
       <c r="E72">
-        <v>8440.416640126805</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>8440.4166401268049</v>
+      </c>
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>9034.777077983437</v>
+        <v>9034.7770779834373</v>
       </c>
       <c r="B73">
         <v>2.249855504300784</v>
       </c>
       <c r="C73">
-        <v>8881.64526310236</v>
+        <v>8881.6452631023603</v>
       </c>
       <c r="D73">
-        <v>1273.844352475128</v>
+        <v>1273.8443524751281</v>
       </c>
       <c r="E73">
-        <v>8557.746475707365</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>8557.7464757073649</v>
+      </c>
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>9158.647177673345</v>
+        <v>9158.6471776733451</v>
       </c>
       <c r="B74">
         <v>2.24865514381047</v>
       </c>
       <c r="C74">
-        <v>9003.415869577186</v>
+        <v>9003.4158695771857</v>
       </c>
       <c r="D74">
-        <v>1291.309224664952</v>
+        <v>1291.3092246649519</v>
       </c>
       <c r="E74">
-        <v>8675.076311287929</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>8675.0763112879285</v>
+      </c>
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>9282.517277363251</v>
+        <v>9282.5172773632512</v>
       </c>
       <c r="B75">
-        <v>2.247485927595526</v>
+        <v>2.2474859275955259</v>
       </c>
       <c r="C75">
-        <v>9125.186476052011</v>
+        <v>9125.1864760520111</v>
       </c>
       <c r="D75">
         <v>1308.774096854768</v>
       </c>
       <c r="E75">
-        <v>8792.40614686849</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>8792.4061468684904</v>
+      </c>
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>9406.387377053161</v>
+        <v>9406.3873770531609</v>
       </c>
       <c r="B76">
-        <v>2.246582895167568</v>
+        <v>2.2465828951675682</v>
       </c>
       <c r="C76">
-        <v>9246.957082526837</v>
+        <v>9246.9570825268365</v>
       </c>
       <c r="D76">
-        <v>1326.238969044592</v>
+        <v>1326.2389690445921</v>
       </c>
       <c r="E76">
-        <v>8909.735982449052</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>8909.7359824490522</v>
+      </c>
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>9530.257476743067</v>
+        <v>9530.2574767430669</v>
       </c>
       <c r="B77">
-        <v>2.245427534884512</v>
+        <v>2.2454275348845121</v>
       </c>
       <c r="C77">
-        <v>9368.727689001658</v>
+        <v>9368.7276890016583</v>
       </c>
       <c r="D77">
         <v>1343.703841234412</v>
       </c>
       <c r="E77">
-        <v>9027.065818029614</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>9027.0658180296141</v>
+      </c>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>9654.127576432973</v>
       </c>
       <c r="B78">
-        <v>2.244301962642128</v>
+        <v>2.2443019626421279</v>
       </c>
       <c r="C78">
-        <v>9490.498295476484</v>
+        <v>9490.4982954764837</v>
       </c>
       <c r="D78">
-        <v>1361.168713424241</v>
+        <v>1361.1687134242411</v>
       </c>
       <c r="E78">
-        <v>9144.395653610176</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>9144.3956536101759</v>
+      </c>
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>9777.997676122881</v>
+        <v>9777.9976761228809</v>
       </c>
       <c r="B79">
-        <v>2.243207399131356</v>
+        <v>2.2432073991313559</v>
       </c>
       <c r="C79">
-        <v>9612.268901951309</v>
+        <v>9612.2689019513091</v>
       </c>
       <c r="D79">
-        <v>1378.633585614063</v>
+        <v>1378.6335856140629</v>
       </c>
       <c r="E79">
         <v>9261.725489190736</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>9901.867775812791</v>
+        <v>9901.8677758127906</v>
       </c>
       <c r="B80">
         <v>2.242147809519202</v>
       </c>
       <c r="C80">
-        <v>9734.039508426131</v>
+        <v>9734.0395084261309</v>
       </c>
       <c r="D80">
         <v>1396.098457803884</v>
       </c>
       <c r="E80">
-        <v>9379.0553247713</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>9379.0553247712996</v>
+      </c>
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>10025.7378755027</v>
       </c>
       <c r="B81">
-        <v>2.241104257516031</v>
+        <v>2.2411042575160312</v>
       </c>
       <c r="C81">
-        <v>9855.810114900958</v>
+        <v>9855.8101149009581</v>
       </c>
       <c r="D81">
-        <v>1413.563329993712</v>
+        <v>1413.5633299937119</v>
       </c>
       <c r="E81">
-        <v>9496.385160351863</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>9496.3851603518633</v>
+      </c>
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>10149.6079751926</v>
+        <v>10149.607975192601</v>
       </c>
       <c r="B82">
-        <v>2.240082931564359</v>
+        <v>2.2400829315643591</v>
       </c>
       <c r="C82">
-        <v>9977.580721375782</v>
+        <v>9977.5807213757816</v>
       </c>
       <c r="D82">
-        <v>1431.02820218353</v>
+        <v>1431.0282021835301</v>
       </c>
       <c r="E82">
-        <v>9613.714995932425</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>9613.7149959324252</v>
+      </c>
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>10273.47807488251</v>
+        <v>10273.478074882511</v>
       </c>
       <c r="B83">
         <v>2.239082413836865</v>
       </c>
       <c r="C83">
-        <v>10099.35132785061</v>
+        <v>10099.351327850611</v>
       </c>
       <c r="D83">
-        <v>1448.493074373352</v>
+        <v>1448.4930743733521</v>
       </c>
       <c r="E83">
         <v>9731.044831512987</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>10397.34817457242</v>
       </c>
       <c r="B84">
-        <v>2.238101617015173</v>
+        <v>2.2381016170151731</v>
       </c>
       <c r="C84">
-        <v>10221.12193432543</v>
+        <v>10221.121934325431</v>
       </c>
       <c r="D84">
         <v>1465.957946563178</v>
@@ -1813,25 +3745,27 @@
       <c r="E84">
         <v>9848.374667093547</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>10521.21827426233</v>
       </c>
       <c r="B85">
-        <v>2.237139666911767</v>
+        <v>2.2371396669117671</v>
       </c>
       <c r="C85">
-        <v>10342.89254080025</v>
+        <v>10342.892540800251</v>
       </c>
       <c r="D85">
         <v>1483.422818753</v>
       </c>
       <c r="E85">
-        <v>9965.704502674111</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>9965.7045026741107</v>
+      </c>
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>10645.08837395224</v>
       </c>
@@ -1842,30 +3776,32 @@
         <v>10464.66314727508</v>
       </c>
       <c r="D86">
-        <v>1500.887690942816</v>
+        <v>1500.8876909428161</v>
       </c>
       <c r="E86">
-        <v>10083.03433825467</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>10083.034338254671</v>
+      </c>
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>10768.95847364214</v>
       </c>
       <c r="B87">
-        <v>2.235277351567246</v>
+        <v>2.2352773515672459</v>
       </c>
       <c r="C87">
         <v>10586.4337537499</v>
       </c>
       <c r="D87">
-        <v>1518.352563132643</v>
+        <v>1518.3525631326429</v>
       </c>
       <c r="E87">
-        <v>10200.36417383523</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>10200.364173835231</v>
+      </c>
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>10892.82857333205</v>
       </c>
@@ -1876,18 +3812,19 @@
         <v>10708.20436022473</v>
       </c>
       <c r="D88">
-        <v>1535.817435322463</v>
+        <v>1535.8174353224631</v>
       </c>
       <c r="E88">
         <v>10317.6940094158</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>11016.69867302196</v>
       </c>
       <c r="B89">
-        <v>2.233474612096183</v>
+        <v>2.2334746120961828</v>
       </c>
       <c r="C89">
         <v>10829.97496669955</v>
@@ -1898,42 +3835,45 @@
       <c r="E89">
         <v>10435.02384499636</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>11140.56877271187</v>
+        <v>11140.568772711869</v>
       </c>
       <c r="B90">
-        <v>2.232608478323278</v>
+        <v>2.2326084783232778</v>
       </c>
       <c r="C90">
-        <v>10951.74557317438</v>
+        <v>10951.745573174379</v>
       </c>
       <c r="D90">
-        <v>1570.747179702115</v>
+        <v>1570.7471797021151</v>
       </c>
       <c r="E90">
         <v>10552.35368057692</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>11264.43887240177</v>
       </c>
       <c r="B91">
-        <v>2.231746508789071</v>
+        <v>2.2317465087890711</v>
       </c>
       <c r="C91">
-        <v>11073.5161796492</v>
+        <v>11073.516179649199</v>
       </c>
       <c r="D91">
-        <v>1588.212051891937</v>
+        <v>1588.2120518919371</v>
       </c>
       <c r="E91">
         <v>10669.68351615748</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>11388.30897209168</v>
       </c>
@@ -1944,15 +3884,16 @@
         <v>11195.28678612403</v>
       </c>
       <c r="D92">
-        <v>1605.676924081761</v>
+        <v>1605.6769240817609</v>
       </c>
       <c r="E92">
-        <v>10787.01335173805</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>10787.013351738049</v>
+      </c>
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>11512.17907178159</v>
+        <v>11512.179071781589</v>
       </c>
       <c r="B93">
         <v>2.230067072798561</v>
@@ -1964,27 +3905,29 @@
         <v>1623.14179627158</v>
       </c>
       <c r="E93">
-        <v>10904.34318731861</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>10904.343187318609</v>
+      </c>
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>11636.0491714715</v>
+        <v>11636.049171471501</v>
       </c>
       <c r="B94">
-        <v>2.229250512684806</v>
+        <v>2.2292505126848061</v>
       </c>
       <c r="C94">
-        <v>11438.82799907368</v>
+        <v>11438.827999073679</v>
       </c>
       <c r="D94">
         <v>1640.606668461402</v>
       </c>
       <c r="E94">
-        <v>11021.67302289917</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>11021.673022899169</v>
+      </c>
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>11759.9192711614</v>
       </c>
@@ -1992,38 +3935,40 @@
         <v>2.228445975954398</v>
       </c>
       <c r="C95">
-        <v>11560.5986055485</v>
+        <v>11560.598605548499</v>
       </c>
       <c r="D95">
-        <v>1658.071540651221</v>
+        <v>1658.0715406512211</v>
       </c>
       <c r="E95">
-        <v>11139.00285847973</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>11139.002858479729</v>
+      </c>
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>11883.78937085131</v>
+        <v>11883.789370851309</v>
       </c>
       <c r="B96">
-        <v>2.227654833991417</v>
+        <v>2.2276548339914171</v>
       </c>
       <c r="C96">
-        <v>11682.36921202332</v>
+        <v>11682.369212023321</v>
       </c>
       <c r="D96">
-        <v>1675.53641284105</v>
+        <v>1675.5364128410499</v>
       </c>
       <c r="E96">
-        <v>11256.33269406029</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>11256.332694060289</v>
+      </c>
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>12007.65947054122</v>
+        <v>12007.659470541221</v>
       </c>
       <c r="B97">
-        <v>2.226881880602624</v>
+        <v>2.2268818806026238</v>
       </c>
       <c r="C97">
         <v>11804.13981849815</v>
@@ -2032,15 +3977,16 @@
         <v>1693.001285030866</v>
       </c>
       <c r="E97">
-        <v>11373.66252964085</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>11373.662529640849</v>
+      </c>
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>12131.52957023113</v>
       </c>
       <c r="B98">
-        <v>2.226116417563082</v>
+        <v>2.2261164175630821</v>
       </c>
       <c r="C98">
         <v>11925.91042497297</v>
@@ -2049,15 +3995,16 @@
         <v>1710.466157220693</v>
       </c>
       <c r="E98">
-        <v>11490.99236522141</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>11490.992365221409</v>
+      </c>
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>12255.39966992103</v>
+        <v>12255.399669921029</v>
       </c>
       <c r="B99">
-        <v>2.225363318031541</v>
+        <v>2.2253633180315409</v>
       </c>
       <c r="C99">
         <v>12047.68103144779</v>
@@ -2068,16 +4015,17 @@
       <c r="E99">
         <v>11608.32220080198</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>12379.26976961094</v>
+        <v>12379.269769610941</v>
       </c>
       <c r="B100">
-        <v>2.224616377460129</v>
+        <v>2.2246163774601291</v>
       </c>
       <c r="C100">
-        <v>12169.45163792262</v>
+        <v>12169.451637922621</v>
       </c>
       <c r="D100">
         <v>1745.395901600335</v>
@@ -2085,22 +4033,1322 @@
       <c r="E100">
         <v>11725.65203638254</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>12503.13986930085</v>
       </c>
       <c r="B101">
-        <v>2.223887089173905</v>
+        <v>2.2238870891739051</v>
       </c>
       <c r="C101">
-        <v>12291.22224439744</v>
+        <v>12291.222244397441</v>
       </c>
       <c r="D101">
         <v>1762.86077379016</v>
       </c>
       <c r="E101">
         <v>11842.9818719631</v>
+      </c>
+      <c r="G101" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F90EAE-4EAE-43AB-80A3-66D099A7BC6E}">
+  <dimension ref="A2:F44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16" style="7" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1.03</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7">
+        <f>B2/2</f>
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <f>0.7327688148106</f>
+        <v>0.73276881481059997</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
+        <f>B3/46.07</f>
+        <v>1.5905552741710439E-2</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="7">
+        <f>B6</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7">
+        <f>TAL_MPSP_vs_cpcty!D9</f>
+        <v>156.09253232647981</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="7">
+        <f>B12*1000/126.11004</f>
+        <v>1237.7486544804824</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="7">
+        <f>_xlfn.XLOOKUP(B12,TAL_MPSP_vs_cpcty!D:D,TAL_MPSP_vs_cpcty!B:B)</f>
+        <v>2.6494593828202251</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <f>B13*1000</f>
+        <v>2649.4593828202251</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="9">
+        <f>D13*B12</f>
+        <v>413560.82436056121</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="7">
+        <f>D15*2/1000</f>
+        <v>4.2083454252336399</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="7">
+        <f>D23*B5</f>
+        <v>2104.1727126168198</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="9">
+        <f>D15*D2</f>
+        <v>1083.6489469976623</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="7">
+        <f>D17*46.07/1000</f>
+        <v>48.469618435128446</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="7">
+        <f>D23*B6</f>
+        <v>1052.0863563084099</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="9">
+        <f>D17*D3</f>
+        <v>16.734015029097375</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="9">
+        <f>D23*160.21/1000</f>
+        <v>168.55475514417037</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="7">
+        <f>D12*B10</f>
+        <v>1052.0863563084099</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="7">
+        <f>18*D24</f>
+        <v>18937.554413551377</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="7">
+        <f>B7*D23</f>
+        <v>1052.0863563084099</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="7">
+        <f>D25*126.11004/1000</f>
+        <v>23.413879848971987</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="7">
+        <f>D12-D23</f>
+        <v>185.6622981720725</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="7">
+        <f>(2.25936 + (4.184/1000)*(100-20))*B24*1000</f>
+        <v>49125531.153105356</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="7">
+        <f>47.1*1000</f>
+        <v>47100</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="8">
+        <f>0.218*1000</f>
+        <v>218</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="7">
+        <f>B29/(B30*B28)</f>
+        <v>1303.756134636554</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="9">
+        <f>B32*B31</f>
+        <v>284218.83735076874</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="16">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="16">
+        <f>4.184/1000</f>
+        <v>4.1840000000000002E-3</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="7">
+        <f>(B36 + (B37)*(100-20))*B23*1000</f>
+        <v>437352.3942676817</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7">
+        <f>B38/(B30*B28)</f>
+        <v>11.607016833006414</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="9">
+        <f>B39*B31</f>
+        <v>2530.3296695953982</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="7">
+        <f>B16 + B18 + B14 + B33 + B40</f>
+        <v>701410.37434295204</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="7">
+        <f>B43/B23</f>
+        <v>4161.3205972327087</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="10">
+        <f>B44/1000</f>
+        <v>4.1613205972327085</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04114810-7744-4E7E-8F06-359C2FFC8787}">
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>33.838426991946847</v>
+      </c>
+      <c r="B2">
+        <v>3.793502503425775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>51.303299187544049</v>
+      </c>
+      <c r="B3">
+        <v>3.3255693243522861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>68.768171377366727</v>
+      </c>
+      <c r="B4">
+        <v>3.0816820692049798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>86.233043567189242</v>
+      </c>
+      <c r="B5">
+        <v>2.9317967323720291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>103.6979157570122</v>
+      </c>
+      <c r="B6">
+        <v>2.82906217886147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>121.1627879468348</v>
+      </c>
+      <c r="B7">
+        <v>2.754266787178433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>138.62766013665751</v>
+      </c>
+      <c r="B8">
+        <v>2.6958694512775558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>156.09253232647981</v>
+      </c>
+      <c r="B9">
+        <v>2.6494593828202251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>173.55740451630231</v>
+      </c>
+      <c r="B10">
+        <v>2.6129579136094261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>191.0222767061253</v>
+      </c>
+      <c r="B11">
+        <v>2.581508567343711</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>208.487148895948</v>
+      </c>
+      <c r="B12">
+        <v>2.5534057198413218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>225.95202108577041</v>
+      </c>
+      <c r="B13">
+        <v>2.5311629058253931</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>243.4168932755924</v>
+      </c>
+      <c r="B14">
+        <v>2.5098964159636128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>260.8817654654157</v>
+      </c>
+      <c r="B15">
+        <v>2.4931330202493518</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>278.34663765523788</v>
+      </c>
+      <c r="B16">
+        <v>2.4774383816776648</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>295.8115098450595</v>
+      </c>
+      <c r="B17">
+        <v>2.4618594877311599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>313.27638203488368</v>
+      </c>
+      <c r="B18">
+        <v>2.4498094672715989</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>330.74125422470541</v>
+      </c>
+      <c r="B19">
+        <v>2.4373218354113901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>348.20612641452908</v>
+      </c>
+      <c r="B20">
+        <v>2.427590107915226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>365.67099860435189</v>
+      </c>
+      <c r="B21">
+        <v>2.4171402908843569</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>383.135870794173</v>
+      </c>
+      <c r="B22">
+        <v>2.4087117750171401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>400.60074298399689</v>
+      </c>
+      <c r="B23">
+        <v>2.3997264221482371</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>418.06561517381931</v>
+      </c>
+      <c r="B24">
+        <v>2.3924355877254171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>435.53048736364178</v>
+      </c>
+      <c r="B25">
+        <v>2.3843086846753878</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>452.99535955346602</v>
+      </c>
+      <c r="B26">
+        <v>2.378175456216308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>470.46023174328678</v>
+      </c>
+      <c r="B27">
+        <v>2.371087866902347</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>487.92510393310982</v>
+      </c>
+      <c r="B28">
+        <v>2.3658197078067089</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>505.3899761229323</v>
+      </c>
+      <c r="B29">
+        <v>2.359613088874819</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>522.85484831275346</v>
+      </c>
+      <c r="B30">
+        <v>2.354908268346358</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>540.31972050257457</v>
+      </c>
+      <c r="B31">
+        <v>2.3494608001022148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>557.78459269240079</v>
+      </c>
+      <c r="B32">
+        <v>2.3445226001436219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>575.2494648822227</v>
+      </c>
+      <c r="B33">
+        <v>2.339928367049565</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>592.71433707204619</v>
+      </c>
+      <c r="B34">
+        <v>2.3355860185633688</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>610.17920926186753</v>
+      </c>
+      <c r="B35">
+        <v>2.331453093497402</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>627.64408145168932</v>
+      </c>
+      <c r="B36">
+        <v>2.3275442224294229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>645.10895364151406</v>
+      </c>
+      <c r="B37">
+        <v>2.3238213280909932</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>662.57382583133574</v>
+      </c>
+      <c r="B38">
+        <v>2.3207183622577432</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>680.03869802115798</v>
+      </c>
+      <c r="B39">
+        <v>2.317306970657889</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>697.50357021098193</v>
+      </c>
+      <c r="B40">
+        <v>2.3140292765477439</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>714.96844240080202</v>
+      </c>
+      <c r="B41">
+        <v>2.3108795651748029</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>732.43331459062676</v>
+      </c>
+      <c r="B42">
+        <v>2.307852860297293</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>749.89818678044992</v>
+      </c>
+      <c r="B43">
+        <v>2.3051216406364561</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>767.36305897026784</v>
+      </c>
+      <c r="B44">
+        <v>2.3023266237249929</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>784.82793116009123</v>
+      </c>
+      <c r="B45">
+        <v>2.299623746694222</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>802.29280334991779</v>
+      </c>
+      <c r="B46">
+        <v>2.2970195509317382</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>819.7576755397406</v>
+      </c>
+      <c r="B47">
+        <v>2.2945033476553371</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>837.22254772956137</v>
+      </c>
+      <c r="B48">
+        <v>2.2920809949953962</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>854.68741991938509</v>
+      </c>
+      <c r="B49">
+        <v>2.2897310593871771</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>872.15229210920722</v>
+      </c>
+      <c r="B50">
+        <v>2.287457674771312</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>889.6171642990289</v>
+      </c>
+      <c r="B51">
+        <v>2.2853878212564518</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>907.0820364888524</v>
+      </c>
+      <c r="B52">
+        <v>2.2832550723096579</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>924.54690867867646</v>
+      </c>
+      <c r="B53">
+        <v>2.2811904001695629</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>942.011780868497</v>
+      </c>
+      <c r="B54">
+        <v>2.2791958208294312</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>959.47665305831606</v>
+      </c>
+      <c r="B55">
+        <v>2.2772496628920642</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>976.94152524813944</v>
+      </c>
+      <c r="B56">
+        <v>2.2753600662435969</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>994.40639743796271</v>
+      </c>
+      <c r="B57">
+        <v>2.273524249346905</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>1011.871269627786</v>
+      </c>
+      <c r="B58">
+        <v>2.2717460873810511</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1029.336141817611</v>
+      </c>
+      <c r="B59">
+        <v>2.270010471645358</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>1046.8010140074321</v>
+      </c>
+      <c r="B60">
+        <v>2.268321688747307</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>1064.265886197257</v>
+      </c>
+      <c r="B61">
+        <v>2.2666777035799899</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1081.7307583870761</v>
+      </c>
+      <c r="B62">
+        <v>2.2650770172682511</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1099.195630576902</v>
+      </c>
+      <c r="B63">
+        <v>2.263523314324519</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>1116.6605027667249</v>
+      </c>
+      <c r="B64">
+        <v>2.2620203408382671</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>1134.125374956549</v>
+      </c>
+      <c r="B65">
+        <v>2.2605371390248532</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>1151.5902471463669</v>
+      </c>
+      <c r="B66">
+        <v>2.259090211832897</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>1169.055119336188</v>
+      </c>
+      <c r="B67">
+        <v>2.257678128338251</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>1186.5199915260141</v>
+      </c>
+      <c r="B68">
+        <v>2.2562995345906018</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>1203.9848637158379</v>
+      </c>
+      <c r="B69">
+        <v>2.254955481976368</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>1221.4497359056591</v>
+      </c>
+      <c r="B70">
+        <v>2.2536400658560112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>1238.914608095474</v>
+      </c>
+      <c r="B71">
+        <v>2.2523544925922212</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>1256.379480285304</v>
+      </c>
+      <c r="B72">
+        <v>2.2510976691977489</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>1273.8443524751281</v>
+      </c>
+      <c r="B73">
+        <v>2.249855504300784</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>1291.3092246649519</v>
+      </c>
+      <c r="B74">
+        <v>2.24865514381047</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>1308.774096854768</v>
+      </c>
+      <c r="B75">
+        <v>2.2474859275955259</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>1326.2389690445921</v>
+      </c>
+      <c r="B76">
+        <v>2.2465828951675682</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>1343.703841234412</v>
+      </c>
+      <c r="B77">
+        <v>2.2454275348845121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>1361.1687134242411</v>
+      </c>
+      <c r="B78">
+        <v>2.2443019626421279</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>1378.6335856140629</v>
+      </c>
+      <c r="B79">
+        <v>2.2432073991313559</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>1396.098457803884</v>
+      </c>
+      <c r="B80">
+        <v>2.242147809519202</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>1413.5633299937119</v>
+      </c>
+      <c r="B81">
+        <v>2.2411042575160312</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>1431.0282021835301</v>
+      </c>
+      <c r="B82">
+        <v>2.2400829315643591</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>1448.4930743733521</v>
+      </c>
+      <c r="B83">
+        <v>2.239082413836865</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>1465.957946563178</v>
+      </c>
+      <c r="B84">
+        <v>2.2381016170151731</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>1483.422818753</v>
+      </c>
+      <c r="B85">
+        <v>2.2371396669117671</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>1500.8876909428161</v>
+      </c>
+      <c r="B86">
+        <v>2.236201940637593</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>1518.3525631326429</v>
+      </c>
+      <c r="B87">
+        <v>2.2352773515672459</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>1535.8174353224631</v>
+      </c>
+      <c r="B88">
+        <v>2.234367796948157</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>1553.282307512284</v>
+      </c>
+      <c r="B89">
+        <v>2.2334746120961828</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>1570.7471797021151</v>
+      </c>
+      <c r="B90">
+        <v>2.2326084783232778</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>1588.2120518919371</v>
+      </c>
+      <c r="B91">
+        <v>2.2317465087890711</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>1605.6769240817609</v>
+      </c>
+      <c r="B92">
+        <v>2.230899513670622</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>1623.14179627158</v>
+      </c>
+      <c r="B93">
+        <v>2.230067072798561</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>1640.606668461402</v>
+      </c>
+      <c r="B94">
+        <v>2.2292505126848061</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>1658.0715406512211</v>
+      </c>
+      <c r="B95">
+        <v>2.228445975954398</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>1675.5364128410499</v>
+      </c>
+      <c r="B96">
+        <v>2.2276548339914171</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>1693.001285030866</v>
+      </c>
+      <c r="B97">
+        <v>2.2268818806026238</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>1710.466157220693</v>
+      </c>
+      <c r="B98">
+        <v>2.2261164175630821</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>1727.931029410518</v>
+      </c>
+      <c r="B99">
+        <v>2.2253633180315409</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>1745.395901600335</v>
+      </c>
+      <c r="B100">
+        <v>2.2246163774601291</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>1762.86077379016</v>
+      </c>
+      <c r="B101">
+        <v>2.2238870891739051</v>
       </c>
     </row>
   </sheetData>
